--- a/3_Component_Results/IMPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2520848399290218</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7424843809194045</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.903216275652063</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.379571047699995</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.369577110019525</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7268988736191022</v>
+        <v>0.6974398184037287</v>
       </c>
       <c r="C3">
-        <v>0.8723444190625039</v>
+        <v>1.552624331747446</v>
       </c>
       <c r="D3">
-        <v>4.581213413054293</v>
+        <v>7.423039619458927</v>
       </c>
       <c r="E3">
-        <v>2.140376932471076</v>
+        <v>2.72452557695077</v>
       </c>
       <c r="F3">
-        <v>2.033196515194063</v>
+        <v>2.659952944235514</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.9923609613682283</v>
+        <v>1.179297011432999</v>
       </c>
       <c r="C4">
-        <v>1.499374190170302</v>
+        <v>1.950015878589636</v>
       </c>
       <c r="D4">
-        <v>7.433470335805927</v>
+        <v>10.42997277502151</v>
       </c>
       <c r="E4">
-        <v>2.72643913113899</v>
+        <v>3.22954683740947</v>
       </c>
       <c r="F4">
-        <v>2.565208759090087</v>
+        <v>3.037055390127207</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.8905821774263242</v>
+        <v>0.9186370495837128</v>
       </c>
       <c r="C5">
-        <v>1.429013754884965</v>
+        <v>1.942955877847222</v>
       </c>
       <c r="D5">
-        <v>7.706102372470971</v>
+        <v>11.15520434258843</v>
       </c>
       <c r="E5">
-        <v>2.775986738525775</v>
+        <v>3.339940769323377</v>
       </c>
       <c r="F5">
-        <v>2.656498800615971</v>
+        <v>3.244399679230311</v>
       </c>
       <c r="G5">
         <v>49</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8637304291215225</v>
+        <v>1.01406298738989</v>
       </c>
       <c r="C6">
-        <v>1.604388615523484</v>
+        <v>1.964591607092075</v>
       </c>
       <c r="D6">
-        <v>8.215590841438527</v>
+        <v>11.42823783535527</v>
       </c>
       <c r="E6">
-        <v>2.866285198900927</v>
+        <v>3.380567679451969</v>
       </c>
       <c r="F6">
-        <v>2.76197165232617</v>
+        <v>3.259016548116396</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7741620813967547</v>
+        <v>0.8734069636221409</v>
       </c>
       <c r="C7">
-        <v>1.443831640530662</v>
+        <v>1.740984057691856</v>
       </c>
       <c r="D7">
-        <v>8.83201771980575</v>
+        <v>10.78249254741741</v>
       </c>
       <c r="E7">
-        <v>2.971871080616679</v>
+        <v>3.283670590576559</v>
       </c>
       <c r="F7">
-        <v>2.906774939551585</v>
+        <v>3.206762837755778</v>
       </c>
       <c r="G7">
         <v>39</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.7919241552696008</v>
+        <v>1.003986551470107</v>
       </c>
       <c r="C8">
-        <v>1.576905164847791</v>
+        <v>1.777346341468097</v>
       </c>
       <c r="D8">
-        <v>9.152606962242521</v>
+        <v>11.03323908461691</v>
       </c>
       <c r="E8">
-        <v>3.025327579327984</v>
+        <v>3.321631991147862</v>
       </c>
       <c r="F8">
-        <v>2.959033797714582</v>
+        <v>3.208769669857039</v>
       </c>
       <c r="G8">
         <v>38</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.752500088858446</v>
+        <v>0.8645380383347879</v>
       </c>
       <c r="C9">
-        <v>1.814181438332239</v>
+        <v>1.931740234399347</v>
       </c>
       <c r="D9">
-        <v>14.80517865417475</v>
+        <v>17.21370736197478</v>
       </c>
       <c r="E9">
-        <v>3.847749816993661</v>
+        <v>4.148940510777996</v>
       </c>
       <c r="F9">
-        <v>3.866635279408303</v>
+        <v>4.158075926358173</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09992576546954715</v>
+        <v>0.03960286749493035</v>
       </c>
       <c r="C10">
-        <v>1.380813906421996</v>
+        <v>1.355899730545265</v>
       </c>
       <c r="D10">
-        <v>4.966124448265858</v>
+        <v>4.943417352971498</v>
       </c>
       <c r="E10">
-        <v>2.228480300174506</v>
+        <v>2.223379714077534</v>
       </c>
       <c r="F10">
-        <v>2.310277207064398</v>
+        <v>2.30694412459439</v>
       </c>
       <c r="G10">
         <v>14</v>

--- a/3_Component_Results/IMPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2520848399290218</v>
+        <v>-0.06304482099587455</v>
       </c>
       <c r="C2">
-        <v>0.7424843809194045</v>
+        <v>1.284473961807544</v>
       </c>
       <c r="D2">
-        <v>1.903216275652063</v>
+        <v>3.268916597491724</v>
       </c>
       <c r="E2">
-        <v>1.379571047699995</v>
+        <v>1.808014545708005</v>
       </c>
       <c r="F2">
-        <v>1.369577110019525</v>
+        <v>1.824894733127932</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6974398184037287</v>
+        <v>0.3848683813723368</v>
       </c>
       <c r="C3">
-        <v>1.552624331747446</v>
+        <v>1.606026431035804</v>
       </c>
       <c r="D3">
-        <v>7.423039619458927</v>
+        <v>7.828542112970349</v>
       </c>
       <c r="E3">
-        <v>2.72452557695077</v>
+        <v>2.797953200639773</v>
       </c>
       <c r="F3">
-        <v>2.659952944235514</v>
+        <v>2.799493110457711</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.179297011432999</v>
+        <v>0.8746662378248481</v>
       </c>
       <c r="C4">
-        <v>1.950015878589636</v>
+        <v>1.947065274388025</v>
       </c>
       <c r="D4">
-        <v>10.42997277502151</v>
+        <v>10.77140143740715</v>
       </c>
       <c r="E4">
-        <v>3.22954683740947</v>
+        <v>3.281981328010132</v>
       </c>
       <c r="F4">
-        <v>3.037055390127207</v>
+        <v>3.196064181409324</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9186370495837128</v>
+        <v>0.5898522373503049</v>
       </c>
       <c r="C5">
-        <v>1.942955877847222</v>
+        <v>1.91023936529586</v>
       </c>
       <c r="D5">
-        <v>11.15520434258843</v>
+        <v>11.52381436931002</v>
       </c>
       <c r="E5">
-        <v>3.339940769323377</v>
+        <v>3.394674412857589</v>
       </c>
       <c r="F5">
-        <v>3.244399679230311</v>
+        <v>3.378412877893673</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.01406298738989</v>
+        <v>0.6796283455196681</v>
       </c>
       <c r="C6">
-        <v>1.964591607092075</v>
+        <v>2.053046112058658</v>
       </c>
       <c r="D6">
-        <v>11.42823783535527</v>
+        <v>12.25639243636365</v>
       </c>
       <c r="E6">
-        <v>3.380567679451969</v>
+        <v>3.500913086091062</v>
       </c>
       <c r="F6">
-        <v>3.259016548116396</v>
+        <v>3.471440604892087</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8734069636221409</v>
+        <v>0.4620040488475629</v>
       </c>
       <c r="C7">
-        <v>1.740984057691856</v>
+        <v>1.878470610035362</v>
       </c>
       <c r="D7">
-        <v>10.78249254741741</v>
+        <v>11.8468855781181</v>
       </c>
       <c r="E7">
-        <v>3.283670590576559</v>
+        <v>3.441930501639757</v>
       </c>
       <c r="F7">
-        <v>3.206762837755778</v>
+        <v>3.456566949417224</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1.003986551470107</v>
+        <v>0.5682316542479313</v>
       </c>
       <c r="C8">
-        <v>1.777346341468097</v>
+        <v>1.945817767357757</v>
       </c>
       <c r="D8">
-        <v>11.03323908461691</v>
+        <v>12.30934837299113</v>
       </c>
       <c r="E8">
-        <v>3.321631991147862</v>
+        <v>3.508468094908536</v>
       </c>
       <c r="F8">
-        <v>3.208769669857039</v>
+        <v>3.50990290671253</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8645380383347879</v>
+        <v>0.5226750354899881</v>
       </c>
       <c r="C9">
-        <v>1.931740234399347</v>
+        <v>2.444751333587228</v>
       </c>
       <c r="D9">
-        <v>17.21370736197478</v>
+        <v>20.24450866695628</v>
       </c>
       <c r="E9">
-        <v>4.148940510777996</v>
+        <v>4.499389810513897</v>
       </c>
       <c r="F9">
-        <v>4.158075926358173</v>
+        <v>4.585023615187054</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03960286749493035</v>
+        <v>-0.5732758996450275</v>
       </c>
       <c r="C10">
-        <v>1.355899730545265</v>
+        <v>2.122935804733599</v>
       </c>
       <c r="D10">
-        <v>4.943417352971498</v>
+        <v>8.802873317106101</v>
       </c>
       <c r="E10">
-        <v>2.223379714077534</v>
+        <v>2.96696365281176</v>
       </c>
       <c r="F10">
-        <v>2.30694412459439</v>
+        <v>3.02991975663685</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.9774113984092111</v>
+        <v>-0.3393998147840875</v>
       </c>
       <c r="C11">
-        <v>1.465667180170826</v>
+        <v>2.457134838492891</v>
       </c>
       <c r="D11">
-        <v>3.109709340017292</v>
+        <v>7.456238556435196</v>
       </c>
       <c r="E11">
-        <v>1.763436797851653</v>
+        <v>2.730611388761718</v>
       </c>
       <c r="F11">
-        <v>1.641027230988658</v>
+        <v>3.029242133389085</v>
       </c>
       <c r="G11">
         <v>5</v>
